--- a/experiments/experiment_2/notebooks/tabela_grafo.xlsx
+++ b/experiments/experiment_2/notebooks/tabela_grafo.xlsx
@@ -100,48 +100,48 @@
     <t>saddington2012a</t>
   </si>
   <si>
+    <t>ozkaya2013a</t>
+  </si>
+  <si>
+    <t>davis2013a</t>
+  </si>
+  <si>
+    <t>eloranta2013a</t>
+  </si>
+  <si>
     <t>waardenburg2013a</t>
   </si>
   <si>
-    <t>ozkaya2013a</t>
-  </si>
-  <si>
-    <t>eloranta2013a</t>
-  </si>
-  <si>
-    <t>davis2013a</t>
+    <t>power2014a</t>
+  </si>
+  <si>
+    <t>igaki2014a</t>
   </si>
   <si>
     <t>power2014b</t>
   </si>
   <si>
-    <t>power2014a</t>
-  </si>
-  <si>
-    <t>igaki2014a</t>
-  </si>
-  <si>
     <t>wale2015a</t>
   </si>
   <si>
+    <t>heck2015a</t>
+  </si>
+  <si>
+    <t>rindell2015a</t>
+  </si>
+  <si>
     <t>vlietland2015a</t>
   </si>
   <si>
-    <t>rindell2015a</t>
-  </si>
-  <si>
-    <t>heck2015a</t>
-  </si>
-  <si>
     <t>vlietland2016a</t>
   </si>
   <si>
+    <t>eloranta2016a</t>
+  </si>
+  <si>
     <t>gupta2016a</t>
   </si>
   <si>
-    <t>eloranta2016a</t>
-  </si>
-  <si>
     <t>visits</t>
   </si>
   <si>
@@ -175,48 +175,48 @@
     <t>myai2012a</t>
   </si>
   <si>
+    <t>grant2012a, leffingwell2007a, bachmann2012a, nanette2010a, lapham2011a, bass1998a</t>
+  </si>
+  <si>
+    <t>humphrey2013a, jones2011a, boehm1981a, rothman2000a, one2012a, scrum2013a, agile2013a, davis2013b</t>
+  </si>
+  <si>
+    <t>alliance2001a, brown1998b, cockburn2001b, coplien2010a, dybå2008a, easterbrook2008a, veli2012a, lindvall2004a, petersen2009a, pikkarainen2008a, salo2008a, schwaber1995a, sutherland2001a, sutherland2010a, schwaber2011a, versionone2012a</t>
+  </si>
+  <si>
     <t>abrahamsson2003a, adolph2011a, adolph2012a, agarwal2002a, allan2003a, augustine2005a, baskerville2011a, beck2001a, benefield2008a, birks2013a, boehm2002a, boehm2006c, boehm2002b, boehm2005a, boehm1988a, brown2013a, cao2009a, chan2009a, cockburn2002a, cockburn2001a, cohn2003a, coleman2007a, conboy2009a, conboy2007a, denison1991a, dingsøyr2012a, drobka2004a, dybå2008a, fraser2004a, glaser1978b, glaser1992a, glaser1998a, glaser1967b, grisham2005a, harvey1974a, he2004a, heidenberg2010a, hoda2011a, hoda2012a, hoda2013a, iivari2011a, isham2008a, janis1972a, karlström2006a, kettunen2008a, kruchten2013a, kurapati2012a, laanti2011a, larman2009a, levina2005a, lindvall2004a, magdaleno2012a, matavire2013a, mcavoy2009a, mishra2011a, misra2009a, moore2008a, nerur2005a, ogc2009a, parry1998a, ferreira2011a, petersen2009a, petersen2010a, pikkarainen2008a, pikkarainen2012a, pink2009a, rasmusson2003a, robinson2005a, schwaber1991a, siakas2007a, star1989a, strauss1988a, strode2012a, strode2009a, sutherland2001a, svensson2005a, tanis2000a, tolfo2008a, vanvliet2008a, vijayasarathy2012a, vinekar2006a</t>
   </si>
   <si>
-    <t>grant2012a, leffingwell2007a, bachmann2012a, nanette2010a, lapham2011a, bass1998a</t>
-  </si>
-  <si>
-    <t>alliance2001a, brown1998b, cockburn2001b, coplien2010a, dybå2008a, easterbrook2008a, veli2012a, lindvall2004a, petersen2009a, pikkarainen2008a, salo2008a, schwaber1995a, sutherland2001a, sutherland2010a, schwaber2011a, versionone2012a</t>
-  </si>
-  <si>
-    <t>humphrey2013a, jones2011a, boehm1981a, rothman2000a, one2012a, scrum2013a, agile2013a, davis2013b</t>
+    <t>power2011a, rubin2012a, pilcher2015a, cohn2009a, sutherland2012a</t>
+  </si>
+  <si>
+    <t>bang2013a, cheng2000a, clark2005a, cockburn2003b, santos2013a, fukuyasu2012a, button1996a, hosono2012a, mahnic2012a, paasivaara2013a, persson2011a, rocha2013a, schar2011a, scharff2010a, scrum2013a, sommerville2010a, tai2007a, kilamo2012a, webb1995a, yamin2010a</t>
   </si>
   <si>
     <t>qvortrup2003a, rawls1971a, jos2006a, wikipedia2014a, binmore1998a, gat2009a, gat2009b, atlas2009a, appelo2011a, dooley1997a, snowden2007a, vasconcelos2011a, stacey1996a, cohn2009a, schwaber2011b, eoyang2013a, eoyang2013b, eoyang2001a, rubin2012a, power2014a, olson2001a, kerth2001a, emery2003a, tabaka2006a, derby2006a</t>
   </si>
   <si>
-    <t>power2011a, rubin2012a, pilcher2015a, cohn2009a, sutherland2012a</t>
-  </si>
-  <si>
-    <t>bang2013a, cheng2000a, clark2005a, cockburn2003b, santos2013a, fukuyasu2012a, button1996a, hosono2012a, mahnic2012a, paasivaara2013a, persson2011a, rocha2013a, schar2011a, scharff2010a, scrum2013a, sommerville2010a, tai2007a, kilamo2012a, webb1995a, yamin2010a</t>
-  </si>
-  <si>
     <t>abrahamsson2003a, abrahão2010a, adikari2009a, ambler2008a, barksdale2009a, barton2009a, benbasat1987a, blomkvist2005a, boivie2006a, bonacin2009a, bowen2009a, brown2011a, brown2012a, bygstad2011a, cajander2013a, chamberlain2006a, chow2008a, conboy2009a, düchting2007a, ferré2001a, ferreira2010a, ferreira2011a, ferreira2012a, fitzgerald2006a, fox2008a, hartson2012a, herbsleb2007a, hsieh2005a, hussain2009b, geneva2006a, isomursu2012a, jokela2004a, juristo2007a, kollmann2009a, kuusinen2012a, lárusdóttir2012a, lee2011b, lievesley2006a, mcinerney2005a, meingast2013a, miles1994a, misra2009a, myers1997a, myers2007a, najafi2008a, nielsen2012a, norman2006a, paasivaara2003a, paasivaara2010a, raison2013a, schwaber2002a, schwaber2011a, sein2011a, sharp2009a, silva2011b, silva2013b, singh2008a, sutherland2007a, wale2013a, walsham1995a, williams2007a, vallon2013a, vaughan1998a, yin1994a, acm2006a, ågerfalk2009a</t>
   </si>
   <si>
+    <t>iiba2009a, robertson2000a, ieee1998a, ernst2012a, inayat2014a, heck2013a, heck2014a, herzig2012a, bettenburg2008a, heck2014ab, leffingwell2011a, doran1981a, wake2003a, heck2009a, power2014a, alspaugh2013a, fitzgerald2012a, adzic2011a</t>
+  </si>
+  <si>
+    <t>vahtiohje2015a, cp2010a, beck2001a, bsimm2015a, win2001a, deemer2012a, diaz2009a, fitzgerald2013a, vahtiohje2013a, vahtiohje2015b, howard2005a, isoiec2008a, jarvinen2004a, microsoft2012a, pietikäinen2014a, rindell2015b, solinski2016a, tsipenyuk2005a, versionone2013b, williams2003a</t>
+  </si>
+  <si>
     <t>ågerfalk2005a, ambler2012a, andrei2006a, baltacioglu2007a, bannerman2012a, batra2010a, bazerman1994a, beck2001b, begel2009a, birks2011a, boonstra2003a, brown2005a, brown2013a, calvert1995a, candea2010a, cockburn2006a, datta2011a, desanctis1993a, dingyr2013a, dingsøyr2013a, dorairaj2012a, dove2014a, dul2008a, eisenhardt1989a, eisenhardt1992a, feitelson2013a, fitzgerald2014b, freudenberg2010a, galbraith1995a, garg2009a, gibbert2010a, glaser1967a, goffman1959a, green2010a, gregory2011a, hardion2013a, harland1996a, henneman1995a, hildenbrand2008a, huberman1984a, humble2010a, jalali2012a, jonker2011a, jyothi2011a, kim2008a, kniberg2012a, knight2001a, kruchten2013a, larman2013a, lee2010a, leffingwell2007a, lehto2009a, lewis2011a, locke1990a, malone1990a, marshall1996a, mathieu2000a, mentzer2001a, mentzer1997a, mishra2011a, moe2008a, muşlu2013a, myers2007a, olsson2012a, oppenheim2011b, paasivaara2012a, petersen2009a, port2009a, rautiainen2011a, rising2000a, saddington2012a, sahin2005a, saldana2009a, sandelowski1995a, saunders2003a, scheerer2014a, schnitter2011a, schwaber2004a, schwaber2007b, sharp2008a, sharp2010a, soundararajan2012a, ståhl2014b, strode2012a, sutherland2005a, sutherland2008a, sutherland2007a, talby2009a, takeuchi1986a, vlietland2013a, vlietland2014a, vlietland2014b, waardenburg2012a, wegner1987a, wei2010a, wiener1965a, woodward2010a, yin1981a, yin2009a, waardenburg2013a</t>
   </si>
   <si>
-    <t>vahtiohje2015a, cp2010a, beck2001a, bsimm2015a, win2001a, deemer2012a, diaz2009a, fitzgerald2013a, vahtiohje2013a, vahtiohje2015b, howard2005a, isoiec2008a, jarvinen2004a, microsoft2012a, pietikäinen2014a, rindell2015b, solinski2016a, tsipenyuk2005a, versionone2013b, williams2003a</t>
-  </si>
-  <si>
-    <t>iiba2009a, robertson2000a, ieee1998a, ernst2012a, inayat2014a, heck2013a, heck2014a, herzig2012a, bettenburg2008a, heck2014ab, leffingwell2011a, doran1981a, wake2003a, heck2009a, power2014a, alspaugh2013a, fitzgerald2012a, adzic2011a</t>
-  </si>
-  <si>
     <t>akbar2011a, ambler2009b, banbury2010a, bartlett2007a, baskerville1999a, baskerville1996a, batra2010a, beedle2013a, brown2005a, clarke2013a, cummings2014a, dorairaj2012a, easterbrook2008a, gersick1991a, hannan1984a, holz2004a, hoyle2001a, humble2010a, ieee2008a, ilgen2005a, jonker2011a, jrad2014a, kniberg2012a, kolb1984a, krueger1994a, larman2013a, leffingwell2007a, leffingwell2010a, lim2006a, mathieu2000a, melville2004a, moe2008a, moniruzzaman2013a, morgan2002a, neely2013a, olsson2012a, paasivaara2012a, pikkarainen2005a, plugge2009a, port2009a, qumer2008a, rautiainen2011a, rising2000a, romanelli1994a, runeson2009a, salo2005a, scheerer2014a, schnitter2011a, soundararajan2009a, stacey1995a, stelzer1998a, stettina2015a, susman1978a, sutherland2005a, schwaber2013a, takeuchi1986a, talby2009a, cp2010a, tfsc2011a, unterkalmsteiner2012a, vacanti2014a, bon2007a, tiem2006a, versionone2013a, vlaanderen2011a, vlietland2014a, vlietland2014b, vlietland2015a, walsham1995b, weich1999a, yamakami2013a</t>
   </si>
   <si>
+    <t>eloranta2013a, manifesto2001a, brown1998a, cockburn2002a, coplien2010a, dybå2008a, easterbrook2008a, eloranta2015a, lindvall2004a, petersen2009a, pikkarainen2008a, salo2008a, schwaber1995a, sutherland2001a, sutherland2010a, schwaber2011a, versionone2012a, eloranta2013a, org2015a, jeffries2003a, cockburn2004a</t>
+  </si>
+  <si>
     <t>andansare2014a, marschal2011a, cockburn2008a, meter2016a, coder2009a, codovation2012a, coverity2016a, coverity2016b, cppcheck2016a, designtool2016a, designtool2016b, dsdm2016a, eclemma2016a, fowler2008a, findbugs2016a, suryanarayana2014a, sharma2015a, breault2015a, fowler2003a, fowler2009a, mindtools2016a, ncover2016a, newing2012a, perfmon2016a, bob2009a, simian2016a, seaman2012a, cube2009a, campwood2016a, heusser2011a, shore2016a, msft2013a, feathers2016a, li2016b</t>
   </si>
   <si>
-    <t>eloranta2013a, manifesto2001a, brown1998a, cockburn2002a, coplien2010a, dybå2008a, easterbrook2008a, eloranta2015a, lindvall2004a, petersen2009a, pikkarainen2008a, salo2008a, schwaber1995a, sutherland2001a, sutherland2010a, schwaber2011a, versionone2012a, eloranta2013a, org2015a, jeffries2003a, cockburn2004a</t>
-  </si>
-  <si>
     <t>selected backward list</t>
   </si>
   <si>
@@ -244,46 +244,46 @@
     <t>haaster2014a, vlietland2015b, kalenda2018a, haaster2015a, vlietland2015a</t>
   </si>
   <si>
+    <t>gagliardi2013a, japan2015a</t>
+  </si>
+  <si>
+    <t>yli2016a, malhotra2016a, texel2015a, alotaibi2014a, gong2017a, alotaibi2014b, diebold2018a, kyheröinen2018a</t>
+  </si>
+  <si>
+    <t>järvinen2014a, eloranta2016a, lópez2016a, hoda2017a, sharma2016a, ramirez2016a, khelladi2015a, koski2015a, eloranta2015b, lópez2017a, carew2017a, eloranta2016a</t>
+  </si>
+  <si>
     <t>campanelli2015a, gregory2016a, tarhan2014a, vlietland2015a, bass2015a, bass2014a, gregory2015a, heikkilä2015a, tomanek2015a, barroca2018a, kuusinen2016a, fitriani2016a, berger2015a, singh2015a, laukkanen2016a, baseer2015a, manen2014a, bishop2016a, morken2014a, joseph2017a, darnell2015a, jovanovi2017a, cornelius2014a, kusters2017a, hron2018a, campanelli2018a, behm2015a, petrik2015a, diebold2016a, campanelli2014a, deley2017a, theobald2018a, laukkanen2018a, haaster2014a, kalliamvakou2017a, patel2017a, felipe2015a, zhang2016a, joseph2016a, bass2014b, haaster2016a, homrich2015a, alzoubi2016b, haines2017a, confidential2016, östman2017a, felipe2015b, musura2017a, chassart2016a, vlietland2015b, sulaiman2018a, vrhovec2016a, luger2015a, alkema2017a, haaster2015a, kinnunen2018a, garbulho2017a, norberg2016a, leur2016a, assis2017a, roslund2015a, järvi2018a, gencer2017a, norberg2016b, almeida2017a, garcia2017b, jovanovi2017b, assis2017b, salopaasi2014a</t>
   </si>
   <si>
-    <t>gagliardi2013a, japan2015a</t>
-  </si>
-  <si>
-    <t>järvinen2014a, eloranta2016a, lópez2016a, hoda2017a, sharma2016a, ramirez2016a, khelladi2015a, koski2015a, eloranta2015b, lópez2017a, carew2017a, eloranta2016a</t>
-  </si>
-  <si>
-    <t>yli2016a, malhotra2016a, texel2015a, alotaibi2014a, gong2017a, alotaibi2014b, diebold2018a, kyheröinen2018a</t>
+    <t>heck2015a, dennehy2017a, heck2018a, power2014c, heck2017a, ahmad2018a, heck2017b, myers2017a, power2015b, dennehy2016a, connor2017a, conboy2018a, heck2016a, diebold2018a, ochodek2018a, holvitie2018a, power2014b</t>
+  </si>
+  <si>
+    <t>mahni2015a, matthies2016b, matthies2016a, itsuda2015a, herrmann2017a, japan2015b, ju2017a, ju2018a, chishiro2018a, japan2018a, japan2017a, japan2017b, japan2017c, melo2016a</t>
   </si>
   <si>
     <t>fontana2015a, power2014d, walter2015a</t>
   </si>
   <si>
-    <t>heck2015a, dennehy2017a, heck2018a, power2014c, heck2017a, ahmad2018a, heck2017b, myers2017a, power2015b, dennehy2016a, connor2017a, conboy2018a, heck2016a, diebold2018a, ochodek2018a, holvitie2018a, power2014b</t>
-  </si>
-  <si>
-    <t>mahni2015a, matthies2016b, matthies2016a, itsuda2015a, herrmann2017a, japan2015b, ju2017a, ju2018a, chishiro2018a, japan2018a, japan2017a, japan2017b, japan2017c, melo2016a</t>
-  </si>
-  <si>
     <t>law2015a, kuusinen2015a, eshet2016a, fitriani2016a, mateen2017a, hernández2017a, garcia2017a, sagar2017a, lárusdóttir2016a, salin2015a, hernández2017b, yusuf2016a, silva2017b, martínez2016a</t>
   </si>
   <si>
+    <t>oliveira2017a, do2017a, reddivari2018a, heck2016a, bhowmik2018a, hollis2017a, abdou2018a</t>
+  </si>
+  <si>
+    <t>rindell2016a, rindell2017a, rindell2017b</t>
+  </si>
+  <si>
     <t>bass2016a, dingsøyr2018a, krimpmann2015a, batra2016a, moe2017a, almutairi2015a, dingsøyr2018b, jigeesh2015a, stettina2015b, aintila2016a, bjørnson2018a, sensuse2017a, imani2018a, aamir2017a, mansouri2015a, patel2017a, pages2014a, bonassa2016a, krimpmann2015b, haaster2016a, oomen2017a, vlietland2015b, noll2017a, syversen2016a, musa2017a, andreassen2015a, arango2017a, jr2015a, sousa2015a, vlietland2016a</t>
   </si>
   <si>
-    <t>rindell2016a, rindell2017a, rindell2017b</t>
-  </si>
-  <si>
-    <t>oliveira2017a, do2017a, reddivari2018a, heck2016a, bhowmik2018a, hollis2017a, abdou2018a</t>
-  </si>
-  <si>
     <t>bass2016a, lappi2017a, perkusich2017b, buul2016a, syversen2016a, ziebell2016a, ziebell2018a, ziebell2016b</t>
   </si>
   <si>
+    <t>fitriani2016a, rahayu2016a, silva2017a, perkusich2017a, smiari2018a, przybyłek2017a, helwerda122017a, carew2017a, perkusich2017b, totten2017a, george2018a, erukulapati2017a, karkimo2018a</t>
+  </si>
+  <si>
     <t>gupta2016b</t>
-  </si>
-  <si>
-    <t>fitriani2016a, rahayu2016a, silva2017a, perkusich2017a, smiari2018a, przybyłek2017a, helwerda122017a, carew2017a, perkusich2017b, totten2017a, george2018a, erukulapati2017a, karkimo2018a</t>
   </si>
   <si>
     <t>selected forward list</t>
@@ -949,13 +949,13 @@
         <v>74</v>
       </c>
       <c r="M7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="O7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P7" t="s">
         <v>99</v>
@@ -996,10 +996,10 @@
         <v>75</v>
       </c>
       <c r="M8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O8" t="s">
         <v>98</v>
@@ -1019,40 +1019,28 @@
         <v>28</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>2</v>
       </c>
-      <c r="F9">
-        <v>81</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>69</v>
-      </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
         <v>53</v>
       </c>
-      <c r="K9" t="s">
-        <v>26</v>
-      </c>
       <c r="L9" t="s">
         <v>76</v>
-      </c>
-      <c r="M9" t="s">
-        <v>36</v>
-      </c>
-      <c r="N9" t="s">
-        <v>94</v>
-      </c>
-      <c r="O9" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1072,13 +1060,13 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1101,10 +1089,10 @@
         <v>30</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>16</v>
@@ -1128,7 +1116,7 @@
         <v>91</v>
       </c>
       <c r="N11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1142,28 +1130,40 @@
         <v>31</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
         <v>56</v>
       </c>
+      <c r="K12" t="s">
+        <v>26</v>
+      </c>
       <c r="L12" t="s">
         <v>79</v>
+      </c>
+      <c r="M12" t="s">
+        <v>38</v>
+      </c>
+      <c r="N12" t="s">
+        <v>94</v>
+      </c>
+      <c r="O12" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1180,34 +1180,31 @@
         <v>3</v>
       </c>
       <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>17</v>
+      </c>
+      <c r="I13">
         <v>2</v>
-      </c>
-      <c r="F13">
-        <v>25</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>3</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
       </c>
       <c r="J13" t="s">
         <v>57</v>
       </c>
-      <c r="K13" t="s">
-        <v>33</v>
-      </c>
       <c r="L13" t="s">
         <v>80</v>
       </c>
+      <c r="M13" t="s">
+        <v>92</v>
+      </c>
       <c r="N13" t="s">
-        <v>33</v>
-      </c>
-      <c r="O13" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1221,34 +1218,28 @@
         <v>33</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
         <v>58</v>
       </c>
       <c r="L14" t="s">
         <v>81</v>
-      </c>
-      <c r="M14" t="s">
-        <v>92</v>
-      </c>
-      <c r="N14" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1262,19 +1253,19 @@
         <v>34</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1282,8 +1273,17 @@
       <c r="J15" t="s">
         <v>59</v>
       </c>
+      <c r="K15" t="s">
+        <v>32</v>
+      </c>
       <c r="L15" t="s">
         <v>82</v>
+      </c>
+      <c r="N15" t="s">
+        <v>32</v>
+      </c>
+      <c r="O15" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1338,40 +1338,37 @@
         <v>36</v>
       </c>
       <c r="D17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
         <v>61</v>
       </c>
       <c r="K17" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="L17" t="s">
         <v>84</v>
       </c>
-      <c r="M17" t="s">
-        <v>39</v>
-      </c>
       <c r="N17" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="O17" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1420,37 +1417,40 @@
         <v>38</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
         <v>63</v>
       </c>
       <c r="K19" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="L19" t="s">
         <v>86</v>
       </c>
+      <c r="M19" t="s">
+        <v>39</v>
+      </c>
       <c r="N19" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="O19" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1485,13 +1485,13 @@
         <v>64</v>
       </c>
       <c r="K20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L20" t="s">
         <v>87</v>
       </c>
       <c r="N20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O20" t="s">
         <v>68</v>
@@ -1511,19 +1511,19 @@
         <v>40</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1531,8 +1531,14 @@
       <c r="J21" t="s">
         <v>65</v>
       </c>
+      <c r="K21" t="s">
+        <v>69</v>
+      </c>
       <c r="L21" t="s">
         <v>88</v>
+      </c>
+      <c r="N21" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1546,19 +1552,19 @@
         <v>41</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="G22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1566,14 +1572,8 @@
       <c r="J22" t="s">
         <v>66</v>
       </c>
-      <c r="K22" t="s">
-        <v>69</v>
-      </c>
       <c r="L22" t="s">
         <v>89</v>
-      </c>
-      <c r="N22" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
